--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Monthly_Communications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471DD51-3FC5-EB4E-B01A-EE9C06ECF5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,9 +225,6 @@
     <t>Also, started the development of Sprint 35 in Dev Environment</t>
   </si>
   <si>
-    <t>SPRINT DELIVERIES</t>
-  </si>
-  <si>
     <t>IMAGE</t>
   </si>
   <si>
@@ -267,12 +265,15 @@
   </si>
   <si>
     <t xml:space="preserve">I would like to thanks to everyone involved on the project, withouth you the above could not be possible. </t>
+  </si>
+  <si>
+    <t>DELIVERIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
@@ -352,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,91 +395,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -491,19 +459,66 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -534,7 +549,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
@@ -582,6 +597,7 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
+      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -629,36 +645,37 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
+      <sheetData sheetId="45" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" dataDxfId="28">
-  <autoFilter ref="A7:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="29">
+  <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="27"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="26"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="25"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A23:H24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A23:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A23:H24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="24">
+  <autoFilter ref="A23:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="TICKETS" dataDxfId="7"/>
-    <tableColumn id="2" name="ESTIMATED" dataDxfId="6"/>
-    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="5"/>
-    <tableColumn id="4" name="% ESTIMATED" dataDxfId="4"/>
-    <tableColumn id="5" name="% NOT ESTIMATED" dataDxfId="3"/>
-    <tableColumn id="6" name="STORYPOINTS" dataDxfId="2"/>
-    <tableColumn id="7" name="SPRINT STORYPOINTS" dataDxfId="1"/>
-    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% ESTIMATED" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% NOT ESTIMATED" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SPRINT STORYPOINTS" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="16">
       <calculatedColumnFormula>Table104[STORYPOINTS]/Table104[SPRINT STORYPOINTS]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -667,51 +684,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A4:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="21"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="C12:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="E4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="PLANNING_START_END"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A12:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="E12:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,31 +996,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1021,7 +1038,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1029,28 +1046,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1078,118 +1095,118 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="G23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>81</v>
+      </c>
+      <c r="B24" s="19">
         <v>62</v>
       </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>81</v>
-      </c>
-      <c r="B24" s="20">
-        <v>62</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <f>Table104[[#This Row],[ESTIMATED]]/Table104[[#This Row],[TICKETS]]</f>
         <v>0.76543209876543206</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <f>1-Table104[[#This Row],[% ESTIMATED]]</f>
         <v>0.23456790123456794</v>
       </c>
@@ -1199,39 +1216,39 @@
       <c r="G24" s="17">
         <v>60</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <f>Table104[STORYPOINTS]/Table104[SPRINT STORYPOINTS]</f>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1253,19 +1270,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$B$5:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$5:$E$8</xm:f>
           </x14:formula1>
@@ -1278,23 +1295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1302,12 +1319,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1347,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1341,27 +1358,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1438,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
@@ -1470,17 +1487,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
         <v>38</v>
       </c>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471DD51-3FC5-EB4E-B01A-EE9C06ECF5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696C457-7E4B-F74A-99F1-3EA9BA8DCA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,14 +408,14 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,9 +424,90 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -441,99 +522,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,30 +652,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A23:H24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A23:H24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A23:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% ESTIMATED" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% NOT ESTIMATED" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SPRINT STORYPOINTS" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% ESTIMATED" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% NOT ESTIMATED" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SPRINT STORYPOINTS" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="14">
       <calculatedColumnFormula>Table104[STORYPOINTS]/Table104[SPRINT STORYPOINTS]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -684,28 +684,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
@@ -715,20 +715,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1108,12 +1108,12 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1121,10 +1121,10 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
@@ -1160,34 +1160,34 @@
       <c r="A21" s="18"/>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1203,12 +1203,11 @@
         <v>19</v>
       </c>
       <c r="D24" s="20">
-        <f>Table104[[#This Row],[ESTIMATED]]/Table104[[#This Row],[TICKETS]]</f>
-        <v>0.76543209876543206</v>
+        <v>0.77</v>
       </c>
       <c r="E24" s="20">
         <f>1-Table104[[#This Row],[% ESTIMATED]]</f>
-        <v>0.23456790123456794</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="F24" s="17">
         <v>292</v>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696C457-7E4B-F74A-99F1-3EA9BA8DCA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625274E9-EE72-9E49-B46A-2DC288D84863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Also, started the development of Sprint 35 in Dev Environment</t>
   </si>
   <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
     <t>BACKLOG</t>
   </si>
   <si>
@@ -240,21 +237,12 @@
     <t>NOT ESTIMATED</t>
   </si>
   <si>
-    <t>% ESTIMATED</t>
-  </si>
-  <si>
-    <t>% NOT ESTIMATED</t>
-  </si>
-  <si>
     <t>TEXTO PARA IMAGENS</t>
   </si>
   <si>
     <t>STORYPOINTS</t>
   </si>
   <si>
-    <t>SPRINT STORYPOINTS</t>
-  </si>
-  <si>
     <t>BACKLOG SPRINTS</t>
   </si>
   <si>
@@ -268,6 +256,15 @@
   </si>
   <si>
     <t>DELIVERIES</t>
+  </si>
+  <si>
+    <t>IMAGE1</t>
+  </si>
+  <si>
+    <t>IMAGE2</t>
+  </si>
+  <si>
+    <t>IMAGE3</t>
   </si>
 </sst>
 </file>
@@ -353,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,14 +395,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,13 +407,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -479,19 +481,6 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -652,31 +641,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A23:H24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A23:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% ESTIMATED" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="% NOT ESTIMATED" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A25:F26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A25:F26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{37EAD30F-4B4C-BE4F-9546-48DFDA909BEA}" name="WAITING" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SPRINT STORYPOINTS" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="14">
-      <calculatedColumnFormula>Table104[STORYPOINTS]/Table104[SPRINT STORYPOINTS]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="1">
+      <calculatedColumnFormula>Table104[STORYPOINTS]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -684,28 +671,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
@@ -715,20 +702,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1010,7 +997,7 @@
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.5" customWidth="1"/>
@@ -1048,10 +1035,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1108,12 +1095,12 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1121,133 +1108,124 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="26"/>
+      <c r="A15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
         <v>81</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B26" s="19">
         <v>62</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C26" s="19">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="D24" s="20">
-        <v>0.77</v>
-      </c>
-      <c r="E24" s="20">
-        <f>1-Table104[[#This Row],[% ESTIMATED]]</f>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="E26" s="17">
         <v>292</v>
       </c>
-      <c r="G24" s="17">
-        <v>60</v>
-      </c>
-      <c r="H24" s="21">
-        <f>Table104[STORYPOINTS]/Table104[SPRINT STORYPOINTS]</f>
+      <c r="F26" s="20">
+        <f>Table104[STORYPOINTS]/60</f>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>73</v>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1233,7 @@
   <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Monthly_Communications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625274E9-EE72-9E49-B46A-2DC288D84863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -237,21 +236,12 @@
     <t>NOT ESTIMATED</t>
   </si>
   <si>
-    <t>TEXTO PARA IMAGENS</t>
-  </si>
-  <si>
     <t>STORYPOINTS</t>
   </si>
   <si>
     <t>BACKLOG SPRINTS</t>
   </si>
   <si>
-    <t>Based on the current numbers of presented above, BST team has 5 sprint in backlog.</t>
-  </si>
-  <si>
-    <t>Its important to highlight that still 23% of the listed tickets are not estimated, so the workload is higher then this</t>
-  </si>
-  <si>
     <t xml:space="preserve">I would like to thanks to everyone involved on the project, withouth you the above could not be possible. </t>
   </si>
   <si>
@@ -265,12 +255,18 @@
   </si>
   <si>
     <t>IMAGE3</t>
+  </si>
+  <si>
+    <t>AGRADECIMENTOS</t>
+  </si>
+  <si>
+    <t>IMAGE4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
@@ -405,26 +401,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -483,13 +471,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -538,10 +534,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
+      <sheetName val="KPI"/>
       <sheetName val="SPRINT 30"/>
       <sheetName val="SPRINT 31"/>
       <sheetName val="SPRINT 32"/>
@@ -550,9 +547,8 @@
       <sheetName val="SPRINT 35"/>
       <sheetName val="DATA"/>
       <sheetName val="BACKLOG"/>
+      <sheetName val="BACKLOG_PERFORMANCE"/>
       <sheetName val="DOCUMENTATION"/>
-      <sheetName val="BACKLOG_PERFORMANCE"/>
-      <sheetName val="KPI"/>
       <sheetName val="AGILE"/>
       <sheetName val="INCIDENT TRACKER"/>
       <sheetName val="HIGH LEVEL VIEW"/>
@@ -586,7 +582,6 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
-      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -634,35 +629,34 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
-      <sheetData sheetId="45" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A7:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="22"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="25"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="24"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="23"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A25:F26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A25:F26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A26:F27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A26:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{37EAD30F-4B4C-BE4F-9546-48DFDA909BEA}" name="WAITING" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="1">
+    <tableColumn id="1" name="TICKETS" dataDxfId="19"/>
+    <tableColumn id="2" name="ESTIMATED" dataDxfId="18"/>
+    <tableColumn id="4" name="WAITING" dataDxfId="17"/>
+    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="16"/>
+    <tableColumn id="6" name="STORYPOINTS" dataDxfId="15"/>
+    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="14">
       <calculatedColumnFormula>Table104[STORYPOINTS]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -671,51 +665,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="12"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="9"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="E4:E10"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
+    <tableColumn id="1" name="PLANNING_START_END"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="5"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="2"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -983,31 +977,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.5" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1025,7 +1019,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1033,14 +1027,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1068,7 +1062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1082,150 +1076,155 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
         <v>81</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B27" s="19">
         <v>62</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C27" s="19">
         <v>10</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D27" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>292</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F27" s="20">
         <f>Table104[STORYPOINTS]/60</f>
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>69</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1232,7 @@
   <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1247,19 +1246,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$B$5:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$5:$E$8</xm:f>
           </x14:formula1>
@@ -1272,23 +1271,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1296,12 +1295,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1323,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1335,27 +1334,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
@@ -1464,17 +1463,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>38</v>
       </c>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -257,10 +257,16 @@
     <t>IMAGE3</t>
   </si>
   <si>
-    <t>AGRADECIMENTOS</t>
-  </si>
-  <si>
     <t>IMAGE4</t>
+  </si>
+  <si>
+    <t>GREETINGS</t>
+  </si>
+  <si>
+    <t>ANUAL CHART</t>
+  </si>
+  <si>
+    <t>CHART</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,8 +657,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A26:F27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A26:F27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A24:F25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A24:F25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="TICKETS" dataDxfId="19"/>
     <tableColumn id="2" name="ESTIMATED" dataDxfId="18"/>
@@ -978,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,116 +1123,134 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="F24" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>81</v>
+      </c>
+      <c r="B25" s="19">
         <v>62</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>81</v>
-      </c>
-      <c r="B27" s="19">
-        <v>62</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="C25" s="19">
         <v>10</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D25" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E25" s="17">
         <v>292</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F25" s="20">
         <f>Table104[STORYPOINTS]/60</f>
         <v>4.8666666666666663</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="20"/>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1232,7 +1259,7 @@
   <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>CHART</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
   </si>
 </sst>
 </file>
@@ -410,11 +413,11 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +1041,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1111,10 +1114,10 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -1137,22 +1140,22 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -1215,7 +1218,7 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19"/>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Monthly_Communications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD18556-1688-944E-AA7C-75927E4466CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -269,13 +270,22 @@
     <t>CHART</t>
   </si>
   <si>
-    <t>TEXTO</t>
+    <t>Based on the chart, we can see that since Sprint 22, BST team have reached a higher maturity, ensuring the delivery of the planned scope.</t>
+  </si>
+  <si>
+    <t>In terms of backlog, highlight for the 7% of topics in Production and the 70% of listed tickets for French Scope.</t>
+  </si>
+  <si>
+    <t>Regarding Sprint 34, even thought BST team has reached the goal of 56 Storypoints planned for the sprint, its important to highlight that some of the planned tickets were not completely finished.</t>
+  </si>
+  <si>
+    <t>In the meantime, while debuging and better analysis, BST team had the chance to work in some other smaller tickets that made possible the deliver of 106%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
@@ -355,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,10 +429,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -497,7 +510,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -546,7 +559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
@@ -594,6 +607,7 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
+      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -641,34 +655,35 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
+      <sheetData sheetId="45" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A7:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="25"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="24"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="23"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A24:F25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A24:F25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A24:F25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A24:F25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="TICKETS" dataDxfId="19"/>
-    <tableColumn id="2" name="ESTIMATED" dataDxfId="18"/>
-    <tableColumn id="4" name="WAITING" dataDxfId="17"/>
-    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="16"/>
-    <tableColumn id="6" name="STORYPOINTS" dataDxfId="15"/>
-    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="WAITING" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="14">
       <calculatedColumnFormula>Table104[STORYPOINTS]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -677,51 +692,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="C12:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="E4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="PLANNING_START_END"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A12:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="E12:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -989,31 +1004,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1031,7 +1046,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1039,14 +1054,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="26"/>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1088,76 +1103,76 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="26"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>61</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>81</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>4.8666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1207,7 +1222,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -1217,7 +1232,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>70</v>
       </c>
@@ -1227,33 +1242,45 @@
       <c r="E28" s="17"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="33" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1276,19 +1303,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$B$5:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$5:$E$8</xm:f>
           </x14:formula1>
@@ -1301,23 +1328,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1325,12 +1352,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1380,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1364,27 +1391,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1395,7 +1422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1477,7 +1504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
@@ -1493,17 +1520,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
         <v>38</v>
       </c>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD18556-1688-944E-AA7C-75927E4466CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1D6D-2FEC-C24A-9FEB-E01956DD06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>In the meantime, while debuging and better analysis, BST team had the chance to work in some other smaller tickets that made possible the deliver of 106%.</t>
+  </si>
+  <si>
+    <t>IMAGE5</t>
   </si>
 </sst>
 </file>
@@ -426,11 +429,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1056,10 +1059,10 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1129,10 +1132,10 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
@@ -1167,10 +1170,10 @@
       <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
@@ -1242,9 +1245,9 @@
       <c r="E28" s="17"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>76</v>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -1253,34 +1256,44 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Monthly_Communications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1D6D-2FEC-C24A-9FEB-E01956DD06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3555" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -283,12 +282,150 @@
   </si>
   <si>
     <t>IMAGE5</t>
+  </si>
+  <si>
+    <t>DEPLOYMENTS</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>EXPECTED DATE</t>
+  </si>
+  <si>
+    <t>WAITING FOR DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BST-1715</t>
+  </si>
+  <si>
+    <t>BST-1710</t>
+  </si>
+  <si>
+    <t>BST-1711</t>
+  </si>
+  <si>
+    <t>BST-1712</t>
+  </si>
+  <si>
+    <t>BST-1713</t>
+  </si>
+  <si>
+    <t>BST-1714</t>
+  </si>
+  <si>
+    <t>BST-1694</t>
+  </si>
+  <si>
+    <t>BST-1700</t>
+  </si>
+  <si>
+    <t>BST-1704</t>
+  </si>
+  <si>
+    <t>BST-1611</t>
+  </si>
+  <si>
+    <t>BST-1666</t>
+  </si>
+  <si>
+    <t>BST-1671</t>
+  </si>
+  <si>
+    <t>BST-1718</t>
+  </si>
+  <si>
+    <t>BST-1721</t>
+  </si>
+  <si>
+    <t>BST-1722</t>
+  </si>
+  <si>
+    <t>BST-1723</t>
+  </si>
+  <si>
+    <t>BST-1725</t>
+  </si>
+  <si>
+    <t>BST-1716</t>
+  </si>
+  <si>
+    <t>BST-1736</t>
+  </si>
+  <si>
+    <t>Modify the JOB Refresh_inst_for_Fund_Subfund_Share_input</t>
+  </si>
+  <si>
+    <t>[Mapping PTFINventory] - Ratings REGRESSION</t>
+  </si>
+  <si>
+    <t>Performance &gt; PTF message mapping duration analyse and potential improvments</t>
+  </si>
+  <si>
+    <t>Performance &gt;&gt; GetRefInstmds Call review &gt; Frequency</t>
+  </si>
+  <si>
+    <t>[Mapping PtfInventory] - Cash_Category_1 et Cash_Categorie_2 - CTO-1962</t>
+  </si>
+  <si>
+    <t>Rename the JOB testTopAlto to PTFINV_mapping_from_INST_receiving</t>
+  </si>
+  <si>
+    <t>[Mapping PtfInventory] - Cash_Category_1 et Cash_Categorie_2 - CTO-2055</t>
+  </si>
+  <si>
+    <t>[Mapping CFI_CODE] - Kondor IRS - CTO-2069</t>
+  </si>
+  <si>
+    <t>[Mapping Asset] - Quote =&gt; InstrumentNetPrice Mapping modified for priority 3</t>
+  </si>
+  <si>
+    <t>JOB getRefInstMDS running to error due to time</t>
+  </si>
+  <si>
+    <t>[ASSET]  attribute.Flag_AutoCall for CFICODE_ like 'D%' Linked with CTO-1993</t>
+  </si>
+  <si>
+    <t>bst_workflowmonitoring additional input devices to log</t>
+  </si>
+  <si>
+    <t>[Mapping Portfolio] - UMBRELLA_NAME KO</t>
+  </si>
+  <si>
+    <t>[BST PROD]: Instrument Contract SWAP not mapped</t>
+  </si>
+  <si>
+    <t>[COLLAT] - Mapping UnderlyingQty Asset</t>
+  </si>
+  <si>
+    <t>[COLLAT- Cash ou Securities] problem on the mapping of bst_inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Mapping Portfolio] Problem in PROD Mapping bst_portfoliotoalto_valuation and bst_portfoliotoalto_quotation </t>
+  </si>
+  <si>
+    <t>TOP UMBRELLA Issue</t>
+  </si>
+  <si>
+    <t>[API ASSET] - Quotation.netPrice - InstrumentNetPrice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
@@ -368,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,12 +572,689 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="59">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3399FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC66FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0"/>
+        </left>
+        <right style="hair">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="2"/>
+        </left>
+        <right style="hair">
+          <color theme="2"/>
+        </right>
+        <top style="hair">
+          <color theme="2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3399FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC66FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color theme="0"/>
+        </left>
+        <right style="hair">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -513,7 +1327,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -562,7 +1376,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
@@ -610,7 +1424,6 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
-      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -658,88 +1471,108 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
-      <sheetData sheetId="45" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A7:D9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A7:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPRINT" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EXPECTED TICKETS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="STORY POINTS" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS OF SPRINT" dataDxfId="22"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="56"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="55"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="54"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table104" displayName="Table104" ref="A24:F25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A24:F25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A50:F51" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A50:F51"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TICKETS" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMATED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="WAITING" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOT ESTIMATED" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="STORYPOINTS" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="BACKLOG SPRINTS" dataDxfId="14">
-      <calculatedColumnFormula>Table104[STORYPOINTS]/60</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="TICKETS" dataDxfId="50"/>
+    <tableColumn id="2" name="ESTIMATED" dataDxfId="49"/>
+    <tableColumn id="4" name="WAITING" dataDxfId="48"/>
+    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="47"/>
+    <tableColumn id="6" name="STORYPOINTS" dataDxfId="46"/>
+    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A4:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:B17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+  <autoFilter ref="A16:B17"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SIGLA" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PROJECT" dataDxfId="10"/>
+    <tableColumn id="1" name="ENVIRONMENT" dataDxfId="30"/>
+    <tableColumn id="2" name="EXPECTED DATE" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="C12:C24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MONTH" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:C39" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A20:C39"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="PRIORITY" dataDxfId="4"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="1"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="E4:E10" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="PLANNING_START_END"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A4:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SIGLA" dataDxfId="42"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A12:A17" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="TYPE" dataDxfId="3"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="E12:E21" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="E4:E10"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="STATUS" dataDxfId="0"/>
+    <tableColumn id="1" name="PLANNING_START_END"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A12:A17"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="TYPE" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="E12:E21"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="STATUS" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,31 +1840,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.5" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1039,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1882,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1057,14 +1890,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1092,7 +1925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1106,229 +1939,486 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B50" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E50" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F50" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
         <v>81</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B51" s="19">
         <v>62</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C51" s="19">
         <v>10</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D51" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E51" s="17">
         <v>292</v>
       </c>
-      <c r="F25" s="20">
-        <f>Table104[STORYPOINTS]/60</f>
-        <v>4.8666666666666663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="F51" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+    <row r="60" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Usage Interne / Internal Use</oddFooter>
   </headerFooter>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$B$5:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$5:$E$8</xm:f>
           </x14:formula1>
@@ -1341,23 +2431,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1365,12 +2455,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +2471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +2483,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1404,27 +2494,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1435,7 +2525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1446,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +2558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +2580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1501,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1509,7 +2599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +2607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1525,7 +2615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
@@ -1533,17 +2623,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>38</v>
       </c>

--- a/Excel_Files/Concerto_Month.xlsx
+++ b/Excel_Files/Concerto_Month.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>[API ASSET] - Quotation.netPrice - InstrumentNetPrice</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>BLOCKER</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,29 +578,89 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -612,7 +681,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -630,677 +700,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3399FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC66FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0"/>
-        </left>
-        <right style="hair">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="2"/>
-        </left>
-        <right style="hair">
-          <color theme="2"/>
-        </right>
-        <top style="hair">
-          <color theme="2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3399FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC66FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color theme="0"/>
-        </left>
-        <right style="hair">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1477,79 +876,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A7:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="56"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="55"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="54"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="53"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="34"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="33"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="32"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A50:F51" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A50:F51" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A50:F51"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="TICKETS" dataDxfId="50"/>
-    <tableColumn id="2" name="ESTIMATED" dataDxfId="49"/>
-    <tableColumn id="4" name="WAITING" dataDxfId="48"/>
-    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="47"/>
-    <tableColumn id="6" name="STORYPOINTS" dataDxfId="46"/>
-    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="45"/>
+    <tableColumn id="1" name="TICKETS" dataDxfId="28"/>
+    <tableColumn id="2" name="ESTIMATED" dataDxfId="27"/>
+    <tableColumn id="4" name="WAITING" dataDxfId="26"/>
+    <tableColumn id="3" name="NOT ESTIMATED" dataDxfId="25"/>
+    <tableColumn id="6" name="STORYPOINTS" dataDxfId="24"/>
+    <tableColumn id="8" name="BACKLOG SPRINTS" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:B17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:B17" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A16:B17"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ENVIRONMENT" dataDxfId="30"/>
-    <tableColumn id="2" name="EXPECTED DATE" dataDxfId="29"/>
+    <tableColumn id="1" name="ENVIRONMENT" dataDxfId="20"/>
+    <tableColumn id="2" name="EXPECTED DATE" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:C39" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A20:C39" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A20:C39"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="PRIORITY" dataDxfId="4"/>
-    <tableColumn id="2" name="JIRA" dataDxfId="1"/>
-    <tableColumn id="3" name="DESCRIPTION" dataDxfId="0"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="16"/>
+    <tableColumn id="3" name="DESCRIPTION" dataDxfId="15"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="42"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="41"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="12"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="38"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="E4:E10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -1559,20 +958,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="34"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="31"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1843,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,10 +1291,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1965,10 +1364,10 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1979,7 +1378,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="5">
@@ -1990,239 +1389,239 @@
       <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>107</v>
       </c>
+      <c r="C21" s="17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>108</v>
       </c>
+      <c r="C22" s="17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>109</v>
       </c>
+      <c r="C23" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>110</v>
       </c>
+      <c r="C24" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>111</v>
       </c>
+      <c r="C25" s="17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>112</v>
       </c>
+      <c r="C26" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>113</v>
       </c>
+      <c r="C27" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>114</v>
       </c>
+      <c r="C28" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>115</v>
       </c>
+      <c r="C29" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>116</v>
       </c>
+      <c r="C30" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>117</v>
       </c>
+      <c r="C31" s="17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>118</v>
       </c>
+      <c r="C32" s="17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>119</v>
       </c>
+      <c r="C33" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>120</v>
       </c>
+      <c r="C34" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>121</v>
       </c>
+      <c r="C35" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>122</v>
       </c>
+      <c r="C36" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>123</v>
       </c>
+      <c r="C37" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>124</v>
       </c>
+      <c r="C38" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>125</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
     </row>
     <row r="41" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="30"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -2257,10 +1656,10 @@
       <c r="A48" s="18"/>
     </row>
     <row r="49" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="30"/>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
